--- a/程鑫鑫.xlsx
+++ b/程鑫鑫.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7080" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
     <sheet name="胡丽萍" sheetId="8" r:id="rId2"/>
     <sheet name="洪涛" sheetId="6" r:id="rId3"/>
     <sheet name="汪超" sheetId="7" r:id="rId4"/>
-    <sheet name="范世伟" sheetId="5" r:id="rId5"/>
+    <sheet name="范式伟" sheetId="5" r:id="rId5"/>
     <sheet name="郭嘉微" sheetId="4" r:id="rId6"/>
     <sheet name="杜靖宜" sheetId="3" r:id="rId7"/>
     <sheet name="汪米锋" sheetId="1" r:id="rId8"/>
@@ -152,11 +152,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,21 +208,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,30 +224,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,8 +253,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,12 +301,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -337,7 +330,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,13 +354,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,13 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,73 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,55 +498,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,21 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -562,6 +540,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +583,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -610,169 +621,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -787,11 +780,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1406,7 +1399,7 @@
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1417,7 +1410,7 @@
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1785,7 +1778,7 @@
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1796,7 +1789,7 @@
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2164,7 +2157,7 @@
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2175,7 +2168,7 @@
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2251,7 +2244,7 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2543,7 +2536,7 @@
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2554,7 +2547,7 @@
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2630,8 +2623,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
@@ -2679,9 +2672,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
-        <v>43639</v>
+        <v>43640</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -2692,11 +2685,8 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="2:5">
+    </row>
+    <row r="5" ht="51" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -2706,9 +2696,6 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
@@ -2721,9 +2708,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="51" customHeight="1" spans="1:5">
+    <row r="7" ht="51" customHeight="1" spans="1:4">
       <c r="A7" s="3">
-        <v>43640</v>
+        <v>43641</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -2733,9 +2720,6 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -2931,7 +2915,7 @@
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2942,7 +2926,7 @@
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3018,7 +3002,7 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D28" sqref="D28:D29"/>
     </sheetView>
   </sheetViews>
@@ -3310,7 +3294,7 @@
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3321,7 +3305,7 @@
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3689,7 +3673,7 @@
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3700,7 +3684,7 @@
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3776,8 +3760,8 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" outlineLevelCol="5"/>
@@ -3825,7 +3809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>43640</v>
       </c>
@@ -3838,8 +3822,11 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" ht="51" spans="2:4">
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3849,8 +3836,11 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3859,6 +3849,9 @@
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="51" customHeight="1" spans="1:4">
@@ -4068,7 +4061,7 @@
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -4079,7 +4072,7 @@
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
     </row>

--- a/程鑫鑫.xlsx
+++ b/程鑫鑫.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2343766-265D-4F22-A267-7A95D3FC0C19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257D261C-F02E-4D42-8612-144D4229FA90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="程鑫鑫" sheetId="9" r:id="rId1"/>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -264,6 +264,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -569,24 +572,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -651,10 +654,10 @@
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -662,8 +665,8 @@
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
@@ -683,10 +686,10 @@
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -694,8 +697,8 @@
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
@@ -715,10 +718,10 @@
       <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -726,8 +729,8 @@
       <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
@@ -755,7 +758,7 @@
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -763,17 +766,17 @@
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
@@ -802,7 +805,7 @@
       <c r="B21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -810,13 +813,13 @@
       <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -863,7 +866,7 @@
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -874,7 +877,7 @@
       <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -883,7 +886,7 @@
       <c r="B30" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -891,13 +894,13 @@
       <c r="B31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -906,29 +909,29 @@
       <c r="B33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -957,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFE90D0-42A6-452D-A1B9-8B7F022C3693}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
@@ -972,24 +975,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1024,6 +1027,9 @@
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
@@ -1035,6 +1041,9 @@
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -1045,6 +1054,9 @@
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -1054,10 +1066,10 @@
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1065,8 +1077,8 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
@@ -1086,10 +1098,10 @@
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1097,8 +1109,8 @@
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
@@ -1118,10 +1130,10 @@
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1129,8 +1141,8 @@
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
@@ -1158,7 +1170,7 @@
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1166,17 +1178,17 @@
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -1205,7 +1217,7 @@
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1213,13 +1225,13 @@
       <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -1266,7 +1278,7 @@
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1277,7 +1289,7 @@
       <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -1286,7 +1298,7 @@
       <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1294,13 +1306,13 @@
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -1309,29 +1321,29 @@
       <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1375,24 +1387,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1457,10 +1469,10 @@
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1468,8 +1480,8 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
@@ -1489,10 +1501,10 @@
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1500,8 +1512,8 @@
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
@@ -1521,10 +1533,10 @@
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1532,8 +1544,8 @@
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
@@ -1561,7 +1573,7 @@
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1569,17 +1581,17 @@
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -1608,7 +1620,7 @@
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1616,13 +1628,13 @@
       <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -1669,7 +1681,7 @@
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1680,7 +1692,7 @@
       <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -1689,7 +1701,7 @@
       <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1697,13 +1709,13 @@
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -1712,29 +1724,29 @@
       <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1778,24 +1790,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1860,10 +1872,10 @@
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1871,8 +1883,8 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
@@ -1892,10 +1904,10 @@
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1903,8 +1915,8 @@
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
@@ -1924,10 +1936,10 @@
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1935,8 +1947,8 @@
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
@@ -1964,7 +1976,7 @@
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1972,17 +1984,17 @@
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -2011,7 +2023,7 @@
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2019,13 +2031,13 @@
       <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -2072,7 +2084,7 @@
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2083,7 +2095,7 @@
       <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -2092,7 +2104,7 @@
       <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2100,13 +2112,13 @@
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -2115,29 +2127,29 @@
       <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2181,24 +2193,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -2263,10 +2275,10 @@
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2274,8 +2286,8 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
@@ -2295,10 +2307,10 @@
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2306,8 +2318,8 @@
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
@@ -2327,10 +2339,10 @@
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2338,8 +2350,8 @@
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
@@ -2367,7 +2379,7 @@
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2375,17 +2387,17 @@
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -2414,7 +2426,7 @@
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2422,13 +2434,13 @@
       <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -2475,7 +2487,7 @@
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2486,7 +2498,7 @@
       <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -2495,7 +2507,7 @@
       <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2503,13 +2515,13 @@
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -2518,29 +2530,29 @@
       <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2569,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6332A6E-D9BD-490D-8995-8D6926A694AF}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D29"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
@@ -2584,24 +2596,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -2636,6 +2648,9 @@
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
@@ -2647,6 +2662,9 @@
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -2657,6 +2675,9 @@
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -2666,10 +2687,10 @@
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2677,8 +2698,8 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
@@ -2698,10 +2719,10 @@
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2709,8 +2730,8 @@
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
@@ -2730,10 +2751,10 @@
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2741,8 +2762,8 @@
       <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
@@ -2770,7 +2791,7 @@
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2778,17 +2799,17 @@
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -2817,7 +2838,7 @@
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2825,13 +2846,13 @@
       <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -2878,7 +2899,7 @@
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2889,7 +2910,7 @@
       <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -2898,7 +2919,7 @@
       <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2906,13 +2927,13 @@
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -2921,29 +2942,29 @@
       <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2972,8 +2993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85C01CD-3593-44E7-9D3F-B2EA161B4A29}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25.5" x14ac:dyDescent="0.2"/>
@@ -2987,24 +3008,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -3039,6 +3060,9 @@
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3050,6 +3074,9 @@
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="E5" s="7">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -3060,6 +3087,9 @@
       </c>
       <c r="D6" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -3069,10 +3099,10 @@
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3080,8 +3110,8 @@
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
@@ -3101,10 +3131,10 @@
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3112,8 +3142,8 @@
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
@@ -3133,10 +3163,10 @@
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3144,8 +3174,8 @@
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
@@ -3173,7 +3203,7 @@
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3181,17 +3211,17 @@
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -3220,7 +3250,7 @@
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3228,13 +3258,13 @@
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -3281,7 +3311,7 @@
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3292,7 +3322,7 @@
       <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -3301,7 +3331,7 @@
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3309,13 +3339,13 @@
       <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -3324,29 +3354,29 @@
       <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3375,7 +3405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -3390,24 +3420,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -3472,10 +3502,10 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3483,8 +3513,8 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -3504,10 +3534,10 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3515,8 +3545,8 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -3536,10 +3566,10 @@
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3547,8 +3577,8 @@
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
@@ -3576,7 +3606,7 @@
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3584,17 +3614,17 @@
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -3623,7 +3653,7 @@
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3631,13 +3661,13 @@
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -3684,7 +3714,7 @@
       <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3695,7 +3725,7 @@
       <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -3704,7 +3734,7 @@
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3712,13 +3742,13 @@
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -3727,29 +3757,29 @@
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
